--- a/Medina Tolentino Francisco 20212.xlsx
+++ b/Medina Tolentino Francisco 20212.xlsx
@@ -4661,6 +4661,9 @@
       <c r="J11" t="s">
         <v>434</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">

--- a/Medina Tolentino Francisco 20212.xlsx
+++ b/Medina Tolentino Francisco 20212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="833">
   <si>
     <t>NC</t>
   </si>
@@ -1881,6 +1881,9 @@
     <t>FATIMA</t>
   </si>
   <si>
+    <t>JOSE ISAAC</t>
+  </si>
+  <si>
     <t>FATIMA MARILYN</t>
   </si>
   <si>
@@ -1995,6 +1998,9 @@
     <t>fm516197@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>fatrodri2@gmail.com</t>
   </si>
   <si>
@@ -2106,6 +2112,9 @@
     <t>2721951437</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721875803</t>
   </si>
   <si>
@@ -2283,6 +2292,9 @@
     <t>SARA RIVERA MARTINEZ</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
   </si>
   <si>
@@ -2385,6 +2397,9 @@
     <t>reginadejesussanchez@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>rodriguezlauraalondra390@gmail.com</t>
   </si>
   <si>
@@ -2452,6 +2467,9 @@
   </si>
   <si>
     <t>2722641275</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2722260619</t>
@@ -5558,7 +5576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5622,22 +5640,22 @@
         <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="I2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -5657,19 +5675,19 @@
         <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5689,19 +5707,19 @@
         <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H4" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="I4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -5721,16 +5739,16 @@
         <v>608</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G5" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H5" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="J5" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -5750,19 +5768,19 @@
         <v>609</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H6" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="J6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5782,19 +5800,19 @@
         <v>610</v>
       </c>
       <c r="E7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="I7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="J7" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5814,22 +5832,22 @@
         <v>611</v>
       </c>
       <c r="E8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G8" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H8" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="I8" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="J8" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5849,19 +5867,19 @@
         <v>612</v>
       </c>
       <c r="E9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H9" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="I9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="J9" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5881,22 +5899,22 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G10" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H10" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="I10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="J10" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5916,19 +5934,19 @@
         <v>613</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="I11" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J11" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5948,22 +5966,22 @@
         <v>614</v>
       </c>
       <c r="E12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F12" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G12" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="I12" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5983,22 +6001,22 @@
         <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="J13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -6018,22 +6036,22 @@
         <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G14" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H14" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="I14" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="J14" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -6053,22 +6071,22 @@
         <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G15" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H15" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I15" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="J15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6088,22 +6106,22 @@
         <v>617</v>
       </c>
       <c r="E16" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="I16" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="J16" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -6123,16 +6141,16 @@
         <v>618</v>
       </c>
       <c r="E17" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H17" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="J17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -6152,19 +6170,19 @@
         <v>619</v>
       </c>
       <c r="E18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H18" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="J18" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -6184,19 +6202,19 @@
         <v>620</v>
       </c>
       <c r="E19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H19" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="J19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6204,10 +6222,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920089</v>
+        <v>20330051920302</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -6216,57 +6234,54 @@
         <v>621</v>
       </c>
       <c r="E20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G20" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="H20" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="I20" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="J20" t="s">
-        <v>812</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920092</v>
+        <v>21330051920089</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>595</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>622</v>
       </c>
       <c r="E21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F21" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H21" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I21" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="J21" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -6274,229 +6289,229 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920093</v>
+        <v>21330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="D22" t="s">
         <v>623</v>
       </c>
       <c r="E22" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F22" t="s">
-        <v>698</v>
+        <v>700</v>
+      </c>
+      <c r="G22" t="s">
+        <v>729</v>
       </c>
       <c r="H22" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="I22" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="J22" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920094</v>
+        <v>21330051920093</v>
       </c>
       <c r="B23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C23" t="s">
-        <v>596</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>624</v>
       </c>
       <c r="E23" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F23" t="s">
-        <v>699</v>
-      </c>
-      <c r="G23" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="H23" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="I23" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="J23" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920096</v>
+        <v>21330051920094</v>
       </c>
       <c r="B24" t="s">
         <v>577</v>
       </c>
       <c r="C24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D24" t="s">
         <v>625</v>
       </c>
       <c r="E24" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F24" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="G24" t="s">
+        <v>730</v>
       </c>
       <c r="H24" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="I24" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="J24" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920097</v>
+        <v>21330051920096</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="C25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D25" t="s">
         <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F25" t="s">
-        <v>701</v>
-      </c>
-      <c r="G25" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="H25" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="I25" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="J25" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>18330051920296</v>
+        <v>21330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
         <v>627</v>
       </c>
       <c r="E26" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F26" t="s">
-        <v>702</v>
+        <v>704</v>
+      </c>
+      <c r="G26" t="s">
+        <v>731</v>
       </c>
       <c r="H26" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="I26" t="s">
-        <v>665</v>
+        <v>799</v>
       </c>
       <c r="J26" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920098</v>
+        <v>18330051920296</v>
       </c>
       <c r="B27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>599</v>
       </c>
       <c r="D27" t="s">
         <v>628</v>
       </c>
       <c r="E27" t="s">
-        <v>666</v>
-      </c>
-      <c r="G27" t="s">
-        <v>729</v>
+        <v>667</v>
+      </c>
+      <c r="F27" t="s">
+        <v>705</v>
       </c>
       <c r="H27" t="s">
-        <v>762</v>
+        <v>765</v>
+      </c>
+      <c r="I27" t="s">
+        <v>667</v>
       </c>
       <c r="J27" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920099</v>
+        <v>21330051920098</v>
       </c>
       <c r="B28" t="s">
         <v>578</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>629</v>
       </c>
       <c r="E28" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="G28" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H28" t="s">
-        <v>763</v>
-      </c>
-      <c r="I28" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="J28" t="s">
-        <v>819</v>
+        <v>732</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6504,127 +6519,130 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>21330051920100</v>
+        <v>21330051920099</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>577</v>
       </c>
       <c r="D29" t="s">
         <v>630</v>
       </c>
       <c r="E29" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="F29" t="s">
+        <v>706</v>
       </c>
       <c r="G29" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H29" t="s">
-        <v>764</v>
+        <v>767</v>
+      </c>
+      <c r="I29" t="s">
+        <v>800</v>
       </c>
       <c r="J29" t="s">
-        <v>731</v>
+        <v>825</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>21330051920101</v>
+        <v>21330051920100</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>631</v>
       </c>
       <c r="E30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F30" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="G30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H30" t="s">
-        <v>765</v>
-      </c>
-      <c r="I30" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="J30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>21330051920383</v>
+        <v>21330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>579</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>578</v>
       </c>
       <c r="D31" t="s">
         <v>632</v>
       </c>
       <c r="E31" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F31" t="s">
-        <v>705</v>
+        <v>707</v>
+      </c>
+      <c r="G31" t="s">
+        <v>735</v>
       </c>
       <c r="H31" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="I31" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="J31" t="s">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>21330051920102</v>
+        <v>21330051920383</v>
       </c>
       <c r="B32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
       </c>
       <c r="D32" t="s">
         <v>633</v>
       </c>
       <c r="E32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F32" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="H32" t="s">
-        <v>767</v>
+        <v>770</v>
+      </c>
+      <c r="I32" t="s">
+        <v>802</v>
       </c>
       <c r="J32" t="s">
-        <v>733</v>
+        <v>826</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -6632,34 +6650,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>21330051920103</v>
+        <v>21330051920102</v>
       </c>
       <c r="B33" t="s">
-        <v>580</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
         <v>634</v>
       </c>
       <c r="E33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F33" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G33" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H33" t="s">
-        <v>768</v>
-      </c>
-      <c r="I33" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="J33" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -6667,66 +6682,66 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>21330051920104</v>
+        <v>21330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C34" t="s">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>635</v>
       </c>
       <c r="E34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F34" t="s">
-        <v>708</v>
+        <v>710</v>
+      </c>
+      <c r="G34" t="s">
+        <v>737</v>
       </c>
       <c r="H34" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="I34" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="J34" t="s">
-        <v>821</v>
+        <v>710</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920105</v>
+        <v>21330051920104</v>
       </c>
       <c r="B35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D35" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F35" t="s">
-        <v>709</v>
-      </c>
-      <c r="G35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H35" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="I35" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="J35" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -6734,34 +6749,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920106</v>
+        <v>21330051920105</v>
       </c>
       <c r="B36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D36" t="s">
-        <v>636</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F36" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G36" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="H36" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="I36" t="s">
-        <v>675</v>
+        <v>805</v>
       </c>
       <c r="J36" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -6769,95 +6784,98 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920107</v>
+        <v>21330051920106</v>
       </c>
       <c r="B37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" t="s">
         <v>637</v>
       </c>
       <c r="E37" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F37" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G37" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="H37" t="s">
-        <v>772</v>
+        <v>775</v>
+      </c>
+      <c r="I37" t="s">
+        <v>677</v>
       </c>
       <c r="J37" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>18330051920309</v>
+        <v>21330051920107</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>603</v>
       </c>
       <c r="D38" t="s">
         <v>638</v>
       </c>
       <c r="E38" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F38" t="s">
-        <v>712</v>
+        <v>714</v>
+      </c>
+      <c r="G38" t="s">
+        <v>714</v>
       </c>
       <c r="H38" t="s">
-        <v>773</v>
-      </c>
-      <c r="I38" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="J38" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920109</v>
+        <v>18330051920309</v>
       </c>
       <c r="B39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C39" t="s">
-        <v>604</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>639</v>
       </c>
       <c r="E39" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F39" t="s">
-        <v>713</v>
-      </c>
-      <c r="G39" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="H39" t="s">
-        <v>774</v>
+        <v>777</v>
+      </c>
+      <c r="I39" t="s">
+        <v>679</v>
       </c>
       <c r="J39" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -6865,33 +6883,65 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920387</v>
+        <v>21330051920109</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D40" t="s">
         <v>640</v>
       </c>
       <c r="E40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F40" t="s">
-        <v>714</v>
+        <v>716</v>
+      </c>
+      <c r="G40" t="s">
+        <v>739</v>
       </c>
       <c r="H40" t="s">
-        <v>775</v>
-      </c>
-      <c r="I40" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="J40" t="s">
-        <v>714</v>
+        <v>832</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>21330051920387</v>
+      </c>
+      <c r="B41" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D41" t="s">
+        <v>641</v>
+      </c>
+      <c r="E41" t="s">
+        <v>681</v>
+      </c>
+      <c r="F41" t="s">
+        <v>717</v>
+      </c>
+      <c r="H41" t="s">
+        <v>779</v>
+      </c>
+      <c r="I41" t="s">
+        <v>806</v>
+      </c>
+      <c r="J41" t="s">
+        <v>717</v>
+      </c>
+      <c r="K41">
         <v>1</v>
       </c>
     </row>

--- a/Medina Tolentino Francisco 20212.xlsx
+++ b/Medina Tolentino Francisco 20212.xlsx
@@ -3848,7 +3848,7 @@
         <v>206</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6251,6 +6251,9 @@
       <c r="J20" t="s">
         <v>817</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
@@ -6846,7 +6849,7 @@
         <v>830</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
